--- a/BloodstreamAPI/testData/SearchableColumns.xlsx
+++ b/BloodstreamAPI/testData/SearchableColumns.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BFCF2D-58EC-4986-A00E-82545F9ADB25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BBDD50-D2E8-4C9D-BE83-97A60EE1FA28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="715" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConclToApprove" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="17">
   <si>
     <t>EndPoint</t>
   </si>
@@ -44,9 +44,6 @@
     <t>TestInformation</t>
   </si>
   <si>
-    <t>filterName</t>
-  </si>
-  <si>
     <t>/gridLayout/filters</t>
   </si>
   <si>
@@ -62,10 +59,22 @@
     <t>WorklistInformation</t>
   </si>
   <si>
-    <t>supressDate</t>
-  </si>
-  <si>
     <t>/gridLayout/searchableColumns</t>
+  </si>
+  <si>
+    <t>ConclusionsToApprove13213</t>
+  </si>
+  <si>
+    <t>DonationInformation4343</t>
+  </si>
+  <si>
+    <t>TestInformationerew</t>
+  </si>
+  <si>
+    <t>WorklistConclusionserwr</t>
+  </si>
+  <si>
+    <t>WorklistInformationerew</t>
   </si>
 </sst>
 </file>
@@ -122,7 +131,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -135,15 +144,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -431,253 +431,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC16E1A-EBE8-4FD7-9522-847FD03243A9}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="5" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37"/>
-      <c r="B37"/>
-      <c r="C37"/>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23"/>
+      <c r="B23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -686,121 +545,103 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA324F4-6303-45A9-B72B-667907D5EA0F}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="6"/>
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -808,118 +649,100 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BEF42D-A3E4-4A88-9791-CF6A0267BCC5}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="6"/>
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -927,118 +750,100 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3647A310-75FB-45FE-A804-D8642A60FA0E}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="6"/>
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1046,119 +851,101 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6AE23C-ED38-43E1-8869-59A543319E62}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="6"/>
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/BloodstreamAPI/testData/SearchableColumns.xlsx
+++ b/BloodstreamAPI/testData/SearchableColumns.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BBDD50-D2E8-4C9D-BE83-97A60EE1FA28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3F0E79-7567-4C4C-8FBD-6DCCF91CE8DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="715" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="715" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConclToApprove" sheetId="2" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="TestInfo" sheetId="4" r:id="rId3"/>
     <sheet name="WorklistDetail" sheetId="5" r:id="rId4"/>
     <sheet name="WorklistOverview" sheetId="6" r:id="rId5"/>
+    <sheet name="ArchiveSample" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="19">
   <si>
     <t>EndPoint</t>
   </si>
@@ -75,6 +76,12 @@
   </si>
   <si>
     <t>WorklistInformationerew</t>
+  </si>
+  <si>
+    <t>ArchiveSamples</t>
+  </si>
+  <si>
+    <t>Abc</t>
   </si>
 </sst>
 </file>
@@ -853,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6AE23C-ED38-43E1-8869-59A543319E62}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,4 +957,102 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC14A08-05F8-46D3-A33B-39101B21502A}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A10:B10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>